--- a/Documents/PRJ_StrateGo_Specs.xlsx
+++ b/Documents/PRJ_StrateGo_Specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniskim/Desktop/JS_Projects/PRJ_StrateGo/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniskim/Desktop/React_Projects/PRJ_StrateGoWeb/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0EB6B9-FA97-9A4C-890C-72A8E68E3244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DCFC32-F7D6-E441-8026-9E084B0ECE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4340" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{4ED293AD-2BA3-48D1-AA68-C968A496D915}"/>
+    <workbookView xWindow="-4340" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{4ED293AD-2BA3-48D1-AA68-C968A496D915}"/>
   </bookViews>
   <sheets>
     <sheet name="Anforderungen" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -58,53 +58,6 @@
   </si>
   <si>
     <t>AN_03</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Das Spiel soll als ein </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2D-Webspiel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (online) ausführbar sein und den Regeln des Original-Brettspiels folgen sowie den Titel </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"StrateGo - Web"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tragen</t>
-    </r>
   </si>
   <si>
     <t>Version</t>
@@ -762,6 +715,56 @@
   </si>
   <si>
     <t>1.1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Das Spiel soll als ein </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2D-Webspiel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (online) ausführbar sein und den Regeln des Original-Brettspiels folgen sowie den Titel </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"StrateGo"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tragen</t>
+    </r>
+  </si>
+  <si>
+    <t>In Bearbeitung</t>
   </si>
 </sst>
 </file>
@@ -894,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -917,62 +920,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1290,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BC9661-0BDE-457E-82E2-5DCDED98A43C}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="127" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="127" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1304,37 +1310,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="A2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1342,367 +1348,347 @@
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="14">
+      <c r="B4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="8">
         <v>45078</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>37</v>
+      <c r="E4" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="66.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="14">
+      <c r="B5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="8">
         <v>45078</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>37</v>
+      <c r="E5" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="104.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="14">
+      <c r="B6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="8">
         <v>45078</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>37</v>
+      <c r="E6" s="27" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="14">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="8">
         <v>45078</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>37</v>
+      <c r="E7" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="173" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="14">
+        <v>9</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="8">
         <v>45078</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>37</v>
+      <c r="E8" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="14">
+        <v>11</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="8">
         <v>45078</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>37</v>
+      <c r="E9" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="14">
+        <v>12</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="8">
         <v>45078</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>37</v>
+      <c r="E10" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="14">
+      <c r="C11" s="17"/>
+      <c r="D11" s="8">
         <v>45078</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>37</v>
+      <c r="E11" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="152" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="14">
+        <v>16</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="8">
         <v>45078</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>37</v>
+      <c r="E12" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14">
+        <v>17</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="8">
         <v>45078</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>37</v>
+      <c r="E13" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="14">
+      <c r="C14" s="17"/>
+      <c r="D14" s="8">
         <v>45078</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>37</v>
+      <c r="E14" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="10">
+        <v>45136</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="16">
-        <v>45136</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="16">
+      <c r="C16" s="17"/>
+      <c r="D16" s="10">
         <v>45136</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>37</v>
+      <c r="E16" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="16">
+      <c r="C17" s="17"/>
+      <c r="D17" s="10">
         <v>45136</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>37</v>
+      <c r="E17" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B19:C19"/>
@@ -1719,6 +1705,26 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1747,453 +1753,525 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="10"/>
+      <c r="G1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="110" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="23">
         <v>10</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="D41:E41"/>
@@ -2204,78 +2282,6 @@
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="G39:H39"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/PRJ_StrateGo_Specs.xlsx
+++ b/Documents/PRJ_StrateGo_Specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniskim/Desktop/React_Projects/PRJ_StrateGoWeb/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DCFC32-F7D6-E441-8026-9E084B0ECE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86D3E6D-ED55-6E44-845A-E372FA164C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4340" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{4ED293AD-2BA3-48D1-AA68-C968A496D915}"/>
+    <workbookView xWindow="-4340" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{4ED293AD-2BA3-48D1-AA68-C968A496D915}"/>
   </bookViews>
   <sheets>
     <sheet name="Anforderungen" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -650,9 +650,6 @@
   </si>
   <si>
     <t>Offen</t>
-  </si>
-  <si>
-    <t>X_000</t>
   </si>
   <si>
     <r>
@@ -681,9 +678,6 @@
 statisch: 0/1
 ID: 00 - 99</t>
     </r>
-  </si>
-  <si>
-    <t>X_110</t>
   </si>
   <si>
     <t>Anzahl der Figur je Spieler</t>
@@ -947,22 +941,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -970,15 +973,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1296,7 +1290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BC9661-0BDE-457E-82E2-5DCDED98A43C}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="127" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="127" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1310,22 +1304,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="19"/>
+      <c r="B2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="23"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
@@ -1333,10 +1327,10 @@
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
@@ -1348,10 +1342,10 @@
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="17"/>
+      <c r="B4" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="20"/>
       <c r="D4" s="8">
         <v>45078</v>
       </c>
@@ -1363,10 +1357,10 @@
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="8">
         <v>45078</v>
       </c>
@@ -1378,25 +1372,25 @@
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="8">
         <v>45078</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>51</v>
+      <c r="E6" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="8">
         <v>45078</v>
       </c>
@@ -1408,10 +1402,10 @@
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="8">
         <v>45078</v>
       </c>
@@ -1423,10 +1417,10 @@
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="8">
         <v>45078</v>
       </c>
@@ -1438,10 +1432,10 @@
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="8">
         <v>45078</v>
       </c>
@@ -1453,10 +1447,10 @@
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="8">
         <v>45078</v>
       </c>
@@ -1468,10 +1462,10 @@
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="8">
         <v>45078</v>
       </c>
@@ -1483,10 +1477,10 @@
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="8">
         <v>45078</v>
       </c>
@@ -1498,10 +1492,10 @@
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="8">
         <v>45078</v>
       </c>
@@ -1513,10 +1507,10 @@
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="10">
         <v>45136</v>
       </c>
@@ -1526,12 +1520,12 @@
     </row>
     <row r="16" spans="1:5" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="17"/>
+        <v>43</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="10">
         <v>45136</v>
       </c>
@@ -1541,12 +1535,12 @@
     </row>
     <row r="17" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="17"/>
+        <v>45</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="20"/>
       <c r="D17" s="10">
         <v>45136</v>
       </c>
@@ -1556,139 +1550,159 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="8"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="8"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="8"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B19:C19"/>
@@ -1705,26 +1719,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1735,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF0CE10-7665-4F1A-89C0-65AB01E34935}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1753,525 +1747,449 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="16"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="26">
         <v>10</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:H36"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="D41:E41"/>
@@ -2282,6 +2200,78 @@
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="G39:H39"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
